--- a/biology/Zoologie/Hepsetus/Hepsetus.xlsx
+++ b/biology/Zoologie/Hepsetus/Hepsetus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hepsetus ou « brochets africains » est un genre de poissons téléostéens de la famille des Hepsetidae et de l'ordre des Characiformes. On a longtemps cru qu'une seule espèce existait, Hepsetus ode, mais des études en 2011-2013 ont montré que cette espèce est plus largement répandue dans certaines régions d'Afrique de l'Ouest et central. Une espèce est bien connue de l'Afrique australe, y compris dans la rivière Kafue, Hepsetus cuvieri[1],[2],[3],[4]. Ces poissons prédateurs atteignent des tailles allant jusqu'à 70 cm (28 po) de longueur[5].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hepsetus ou « brochets africains » est un genre de poissons téléostéens de la famille des Hepsetidae et de l'ordre des Characiformes. On a longtemps cru qu'une seule espèce existait, Hepsetus ode, mais des études en 2011-2013 ont montré que cette espèce est plus largement répandue dans certaines régions d'Afrique de l'Ouest et central. Une espèce est bien connue de l'Afrique australe, y compris dans la rivière Kafue, Hepsetus cuvieri. Ces poissons prédateurs atteignent des tailles allant jusqu'à 70 cm (28 po) de longueur.
 </t>
         </is>
       </c>
@@ -511,14 +523,16 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon FishBase                                           (25 juin 2015)[6]:
-Hepsetus cuvieri (Castelnau, 1861)[1],[3],[4],[7]
-Hepsetus kingsleyae Vreven, Decru &amp; Snoeks, 2013[3]
-Hepsetus lineata (Pellegrin, 1926)[3]
-Hepsetus occidentalis Decru, Snoeks &amp; Vreven, 2013[1],[2],[3],[4] Brièvement dénommé Hepsetus akawo, mais cela est un synonyme de Hepsetus odoe[4].
-Hepsetus odoe (Bloch, 1794)[4]</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon FishBase                                           (25 juin 2015):
+Hepsetus cuvieri (Castelnau, 1861)
+Hepsetus kingsleyae Vreven, Decru &amp; Snoeks, 2013
+Hepsetus lineata (Pellegrin, 1926)
+Hepsetus occidentalis Decru, Snoeks &amp; Vreven, 2013 Brièvement dénommé Hepsetus akawo, mais cela est un synonyme de Hepsetus odoe.
+Hepsetus odoe (Bloch, 1794)</t>
         </is>
       </c>
     </row>
